--- a/document/仕様書/emotion-derby仕様書.xlsx
+++ b/document/仕様書/emotion-derby仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\峠\仕様書\くまのプーさんのホームランダービー！(仮)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UnityProject\TGD\HomeRunDerby\document\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF81CCA-EF6E-4289-BD74-B4F12D95826A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55D6151-E518-4FA6-97D3-EE301E743249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{AB3A2FD8-80D9-47B2-94E5-31B2AEC38565}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>くまのプーさんのホームランダービー!(仮)仕様書</t>
     <rPh sb="19" eb="20">
@@ -748,6 +748,441 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中情報盤</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの現在の状況等を表示される場所です。
+・「目標」この投手攻略に必要なホームラン数
+・「ホームラン」このゲーム中に打ったホームラン数
+・「残り」投手が投げてくる残りの投球数</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウシュ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウリャク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>トウシュ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>トウキュウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投手</t>
+    <rPh sb="0" eb="2">
+      <t>トウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールを投げてくる投手</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右にだけ少し移動可能で投球モーションのあと様々なボールを投げてくる
+本ゲームにおいてホームベースはあるが、基本ボールカウントは存在しないものとし、
+すべての投球はストライクゾーンに入るものとする</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウキュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>トウキュウ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定の範囲で上下左右に移動可能</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジョウゲサユウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミートポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーが操作するバッター
+※ステータス画面の「パワー」のLvを上げるとより遠くにボールを打つことが出来るようになり、「スピード」のLvを上げるとバッターの移動速度を上げることが出来る</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッターがバットを振るった際にボールを当てることが出来るポイント
+※ボールのヒットポイントはステータス画面からの、「ミートポイント」のLvを上げることでより広い範囲でボールを捕らえられるようになる</t>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールヒット時画面</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投球されたボールをバットに当てることが出来た場合、「ホームラン」「ヒット」「ファール」
+どの結果でも俯瞰画面に遷移してボールのあとをカメラが追っていく</t>
+    <rPh sb="0" eb="2">
+      <t>トウキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>フカン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッターがボールにヒットさせた直後画面が素早く遷移して、ボールを追いかけていく</t>
+    <rPh sb="15" eb="17">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストライク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッターが投球されたボールに当てることが出来なかった場合「ストライク」の表記で
+次の投球に進む</t>
+    <rPh sb="5" eb="7">
+      <t>トウキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウキュウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ススム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッターが投球されたボールをヒットさせホームランになった場合「ホームラン」表示
+され、「ゲーム中情報盤」の「ホームラン」のカウントを+1する</t>
+    <rPh sb="5" eb="7">
+      <t>トウキュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッターがボールをバットに当てることが出来たがホームランに届く距離が出なかった場合に「ヒット」となる
+・ホームランカウントは加算されない
+・飛距離は加算される</t>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>ヒキョリ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファール
+※画像無し</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッターがボールをバットに当てることが出来たが得点される範囲以外にボールが飛んだ場合に「ファール」と表示される
+・「ホームラン」に得点加算されない
+・「飛距離」に加算されない</t>
+    <rPh sb="23" eb="25">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ヒキョリ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>カサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -868,7 +1303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +1354,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4141,6 +4579,550 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 結合子 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D0133D-2CD7-42FF-BF4E-5D7DEA812ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2733675"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 機能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 結合子 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BF7E3D-7270-485A-BF25-97B2A1FFCCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="2867025"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 結合子 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338AA465-D49D-4069-81E4-B1651C607E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="4029075"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フローチャート: 結合子 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EF28BF-9CCF-4316-8C95-8ABE74D81B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="4514850"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2066925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 結合子 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A360960-2F74-47FE-B96D-2EE3C68EBF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="2333625"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2085975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート: 結合子 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8B9981-2C88-4F16-AB88-5FE0046077D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="5381625"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="フローチャート: 結合子 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1509F4-7345-40C6-8942-991738CEA45C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134475" y="542925"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="フローチャート: 結合子 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857EEBFA-B102-469F-B12A-BB4551565411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172575" y="3933825"/>
+          <a:ext cx="295275" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5760,8 +6742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5241C3-7AE4-4ED5-BAA6-3CD5AF514206}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:E35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5886,7 +6868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260008AE-0592-4112-91EF-C7FBF238D3DE}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -6056,8 +7038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155439A9-680D-498A-9699-FE0AD4665CE3}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6092,74 +7074,118 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="B44" s="6">
         <v>1</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.4">
       <c r="B45" s="6">
         <v>2</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B46" s="6">
         <v>3</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="7"/>
+      <c r="C46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B47" s="6">
         <v>4</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B48" s="6">
         <v>5</v>
       </c>
-      <c r="C48" s="11"/>
+      <c r="C48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B49" s="6">
         <v>6</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="9"/>
+      <c r="C49" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B50" s="6">
         <v>7</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
+      <c r="C50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5" ht="75" x14ac:dyDescent="0.4">
       <c r="B51" s="6">
         <v>8</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="12"/>
+      <c r="C51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="75" x14ac:dyDescent="0.4">
       <c r="B52" s="6">
         <v>9</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="12"/>
+      <c r="C52" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
@@ -6173,7 +7199,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
